--- a/artfynd/A 34418-2023.xlsx
+++ b/artfynd/A 34418-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY2"/>
+  <dimension ref="A1:AY26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -791,6 +791,2739 @@
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>111880951</v>
+      </c>
+      <c r="B3" t="n">
+        <v>81248</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1312</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Gammelgransskål</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Pseudographis pinicola</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(Nyl.) Rehm</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Bladberget, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>541997.4628031991</v>
+      </c>
+      <c r="R3" t="n">
+        <v>7206961.404833729</v>
+      </c>
+      <c r="S3" t="n">
+        <v>10</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>13:43</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>13:43</t>
+        </is>
+      </c>
+      <c r="AD3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>Nils Åslund</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>111880924</v>
+      </c>
+      <c r="B4" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Bladberget, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>541837.0161826212</v>
+      </c>
+      <c r="R4" t="n">
+        <v>7207308.4432537</v>
+      </c>
+      <c r="S4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>13:23</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>13:23</t>
+        </is>
+      </c>
+      <c r="AD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>Nils Åslund</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>111880926</v>
+      </c>
+      <c r="B5" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Bladberget, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>541923.3969001662</v>
+      </c>
+      <c r="R5" t="n">
+        <v>7207435.391708902</v>
+      </c>
+      <c r="S5" t="n">
+        <v>10</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>13:16</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>13:16</t>
+        </is>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>Nils Åslund</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>111880922</v>
+      </c>
+      <c r="B6" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Bladberget, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>542025.8874539799</v>
+      </c>
+      <c r="R6" t="n">
+        <v>7207260.71810686</v>
+      </c>
+      <c r="S6" t="n">
+        <v>10</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>11:41</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>11:41</t>
+        </is>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>Nils Åslund</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>111880931</v>
+      </c>
+      <c r="B7" t="n">
+        <v>73701</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>1467</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Rödbrun blekspik</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Sclerophora coniophaea</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Bladberget, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>542058.1969159436</v>
+      </c>
+      <c r="R7" t="n">
+        <v>7207764.939470014</v>
+      </c>
+      <c r="S7" t="n">
+        <v>10</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>12:39</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>12:39</t>
+        </is>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>Nils Åslund</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>111880915</v>
+      </c>
+      <c r="B8" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Bladberget, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>541817.4245676536</v>
+      </c>
+      <c r="R8" t="n">
+        <v>7207284.883581423</v>
+      </c>
+      <c r="S8" t="n">
+        <v>10</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>13:25</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>13:25</t>
+        </is>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>Nils Åslund</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>111880934</v>
+      </c>
+      <c r="B9" t="n">
+        <v>89755</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>1506</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Ostticka</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Skeletocutis odora</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(Sacc.) Ginns</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Bladberget, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>542047.800844026</v>
+      </c>
+      <c r="R9" t="n">
+        <v>7207810.931888579</v>
+      </c>
+      <c r="S9" t="n">
+        <v>10</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>12:48</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>12:48</t>
+        </is>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>Nils Åslund</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>111880943</v>
+      </c>
+      <c r="B10" t="n">
+        <v>89419</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>1204</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Gränsticka</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Phellopilus nigrolimitatus</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Bladberget, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>542040.4023077842</v>
+      </c>
+      <c r="R10" t="n">
+        <v>7207042.880014561</v>
+      </c>
+      <c r="S10" t="n">
+        <v>10</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>11:08</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>11:08</t>
+        </is>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>Nils Åslund</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>111880949</v>
+      </c>
+      <c r="B11" t="n">
+        <v>81248</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>1312</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Gammelgransskål</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Pseudographis pinicola</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(Nyl.) Rehm</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Bladberget, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>542049.2192421678</v>
+      </c>
+      <c r="R11" t="n">
+        <v>7207078.993006725</v>
+      </c>
+      <c r="S11" t="n">
+        <v>10</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>11:13</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>11:13</t>
+        </is>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>Nils Åslund</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>111880948</v>
+      </c>
+      <c r="B12" t="n">
+        <v>81248</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>1312</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Gammelgransskål</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Pseudographis pinicola</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(Nyl.) Rehm</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Bladberget, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>542024.1084171082</v>
+      </c>
+      <c r="R12" t="n">
+        <v>7207236.560950483</v>
+      </c>
+      <c r="S12" t="n">
+        <v>10</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>11:35</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>11:35</t>
+        </is>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>Nils Åslund</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>111880942</v>
+      </c>
+      <c r="B13" t="n">
+        <v>89419</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>1204</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Gränsticka</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Phellopilus nigrolimitatus</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Bladberget, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>542084.1829313486</v>
+      </c>
+      <c r="R13" t="n">
+        <v>7207605.295480353</v>
+      </c>
+      <c r="S13" t="n">
+        <v>10</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>12:26</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>12:26</t>
+        </is>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>Nils Åslund</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>111880918</v>
+      </c>
+      <c r="B14" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Bladberget, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>542094.1676287345</v>
+      </c>
+      <c r="R14" t="n">
+        <v>7207618.559281281</v>
+      </c>
+      <c r="S14" t="n">
+        <v>10</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>12:27</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>12:27</t>
+        </is>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>Nils Åslund</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>111880945</v>
+      </c>
+      <c r="B15" t="n">
+        <v>77515</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Bladberget, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>541992.3350473243</v>
+      </c>
+      <c r="R15" t="n">
+        <v>7206964.296518312</v>
+      </c>
+      <c r="S15" t="n">
+        <v>10</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>13:42</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>13:42</t>
+        </is>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>Nils Åslund</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>111880917</v>
+      </c>
+      <c r="B16" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Bladberget, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>541911.8836180366</v>
+      </c>
+      <c r="R16" t="n">
+        <v>7207560.960151838</v>
+      </c>
+      <c r="S16" t="n">
+        <v>10</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>13:11</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>13:11</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Nils Åslund</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>111880919</v>
+      </c>
+      <c r="B17" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Bladberget, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>542034.2760019428</v>
+      </c>
+      <c r="R17" t="n">
+        <v>7207537.706382441</v>
+      </c>
+      <c r="S17" t="n">
+        <v>10</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>12:20</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>12:20</t>
+        </is>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>Nils Åslund</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>111880932</v>
+      </c>
+      <c r="B18" t="n">
+        <v>73701</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>1467</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Rödbrun blekspik</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Sclerophora coniophaea</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Bladberget, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>542007.8174160335</v>
+      </c>
+      <c r="R18" t="n">
+        <v>7207490.343687338</v>
+      </c>
+      <c r="S18" t="n">
+        <v>10</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>12:14</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>12:14</t>
+        </is>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>Nils Åslund</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>111880953</v>
+      </c>
+      <c r="B19" t="n">
+        <v>81248</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>1312</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Gammelgransskål</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Pseudographis pinicola</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(Nyl.) Rehm</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Bladberget, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>542033.000742175</v>
+      </c>
+      <c r="R19" t="n">
+        <v>7207086.808900191</v>
+      </c>
+      <c r="S19" t="n">
+        <v>10</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>11:17</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>11:17</t>
+        </is>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>Nils Åslund</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>111880937</v>
+      </c>
+      <c r="B20" t="n">
+        <v>77597</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>864</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Knottrig blåslav</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Hypogymnia bitteri</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>(Lynge) Ahti</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Bladberget, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>541877.3536555107</v>
+      </c>
+      <c r="R20" t="n">
+        <v>7207212.904887519</v>
+      </c>
+      <c r="S20" t="n">
+        <v>10</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>13:28</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>13:28</t>
+        </is>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>Nils Åslund</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>111880944</v>
+      </c>
+      <c r="B21" t="n">
+        <v>77515</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Bladberget, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>542042.4498383483</v>
+      </c>
+      <c r="R21" t="n">
+        <v>7207047.989658362</v>
+      </c>
+      <c r="S21" t="n">
+        <v>10</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>11:06</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>11:06</t>
+        </is>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>Nils Åslund</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>111880946</v>
+      </c>
+      <c r="B22" t="n">
+        <v>77515</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Bladberget, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>542062.4165370018</v>
+      </c>
+      <c r="R22" t="n">
+        <v>7207676.105274805</v>
+      </c>
+      <c r="S22" t="n">
+        <v>10</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>12:33</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>12:33</t>
+        </is>
+      </c>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>Nils Åslund</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>111880930</v>
+      </c>
+      <c r="B23" t="n">
+        <v>73701</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>1467</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Rödbrun blekspik</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Sclerophora coniophaea</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Bladberget, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>541921.4757480586</v>
+      </c>
+      <c r="R23" t="n">
+        <v>7207451.451700119</v>
+      </c>
+      <c r="S23" t="n">
+        <v>10</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>13:15</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>13:15</t>
+        </is>
+      </c>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>Nils Åslund</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>111880950</v>
+      </c>
+      <c r="B24" t="n">
+        <v>81248</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>1312</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Gammelgransskål</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Pseudographis pinicola</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>(Nyl.) Rehm</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Bladberget, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>542034.6775354908</v>
+      </c>
+      <c r="R24" t="n">
+        <v>7207027.980329536</v>
+      </c>
+      <c r="S24" t="n">
+        <v>10</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>11:02</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>11:02</t>
+        </is>
+      </c>
+      <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>Nils Åslund</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>111880916</v>
+      </c>
+      <c r="B25" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Bladberget, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>541836.032053621</v>
+      </c>
+      <c r="R25" t="n">
+        <v>7207318.166730116</v>
+      </c>
+      <c r="S25" t="n">
+        <v>10</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>13:22</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>13:22</t>
+        </is>
+      </c>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>Nils Åslund</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>111880923</v>
+      </c>
+      <c r="B26" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Bladberget, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>542031.6272371748</v>
+      </c>
+      <c r="R26" t="n">
+        <v>7207033.864959669</v>
+      </c>
+      <c r="S26" t="n">
+        <v>10</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>11:04</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>11:04</t>
+        </is>
+      </c>
+      <c r="AD26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>Nils Åslund</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 34418-2023.xlsx
+++ b/artfynd/A 34418-2023.xlsx
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111880951</v>
+        <v>111880943</v>
       </c>
       <c r="B3" t="n">
-        <v>81248</v>
+        <v>89419</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,21 +809,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1312</v>
+        <v>1204</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -833,10 +833,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>541997.4628031991</v>
+        <v>542040.4023077842</v>
       </c>
       <c r="R3" t="n">
-        <v>7206961.404833729</v>
+        <v>7207042.880014561</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -868,7 +868,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -878,7 +878,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -905,7 +905,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111880924</v>
+        <v>111880916</v>
       </c>
       <c r="B4" t="n">
         <v>56398</v>
@@ -950,10 +950,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>541837.0161826212</v>
+        <v>541836.032053621</v>
       </c>
       <c r="R4" t="n">
-        <v>7207308.4432537</v>
+        <v>7207318.166730116</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -985,7 +985,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>13:23</t>
+          <t>13:22</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -995,7 +995,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>13:23</t>
+          <t>13:22</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1022,10 +1022,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111880926</v>
+        <v>111880931</v>
       </c>
       <c r="B5" t="n">
-        <v>56398</v>
+        <v>73701</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1038,39 +1038,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>1467</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>541923.3969001662</v>
+        <v>542058.1969159436</v>
       </c>
       <c r="R5" t="n">
-        <v>7207435.391708902</v>
+        <v>7207764.939470014</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1102,7 +1097,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>12:39</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1112,7 +1107,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>12:39</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1139,10 +1134,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111880922</v>
+        <v>111880946</v>
       </c>
       <c r="B6" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1155,39 +1150,34 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>542025.8874539799</v>
+        <v>542062.4165370018</v>
       </c>
       <c r="R6" t="n">
-        <v>7207260.71810686</v>
+        <v>7207676.105274805</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1219,7 +1209,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>12:33</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1229,7 +1219,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>12:33</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1256,10 +1246,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111880931</v>
+        <v>111880918</v>
       </c>
       <c r="B7" t="n">
-        <v>73701</v>
+        <v>56398</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1272,34 +1262,39 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1467</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>542058.1969159436</v>
+        <v>542094.1676287345</v>
       </c>
       <c r="R7" t="n">
-        <v>7207764.939470014</v>
+        <v>7207618.559281281</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1331,7 +1326,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>12:39</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1341,7 +1336,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>12:39</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1485,10 +1480,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111880934</v>
+        <v>111880937</v>
       </c>
       <c r="B9" t="n">
-        <v>89755</v>
+        <v>77597</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1497,25 +1492,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1506</v>
+        <v>864</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ostticka</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Skeletocutis odora</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Sacc.) Ginns</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1525,10 +1520,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>542047.800844026</v>
+        <v>541877.3536555107</v>
       </c>
       <c r="R9" t="n">
-        <v>7207810.931888579</v>
+        <v>7207212.904887519</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1560,7 +1555,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>13:28</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1570,7 +1565,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>13:28</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1597,10 +1592,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111880943</v>
+        <v>111880924</v>
       </c>
       <c r="B10" t="n">
-        <v>89419</v>
+        <v>56398</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1613,34 +1608,39 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1204</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>542040.4023077842</v>
+        <v>541837.0161826212</v>
       </c>
       <c r="R10" t="n">
-        <v>7207042.880014561</v>
+        <v>7207308.4432537</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1672,7 +1672,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>13:23</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1682,7 +1682,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>13:23</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1709,10 +1709,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111880949</v>
+        <v>111880942</v>
       </c>
       <c r="B11" t="n">
-        <v>81248</v>
+        <v>89419</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1725,21 +1725,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1312</v>
+        <v>1204</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1749,10 +1749,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>542049.2192421678</v>
+        <v>542084.1829313486</v>
       </c>
       <c r="R11" t="n">
-        <v>7207078.993006725</v>
+        <v>7207605.295480353</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1784,7 +1784,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>11:13</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1794,7 +1794,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>11:13</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1821,10 +1821,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111880948</v>
+        <v>111880922</v>
       </c>
       <c r="B12" t="n">
-        <v>81248</v>
+        <v>56398</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1837,34 +1837,39 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1312</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>542024.1084171082</v>
+        <v>542025.8874539799</v>
       </c>
       <c r="R12" t="n">
-        <v>7207236.560950483</v>
+        <v>7207260.71810686</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1896,7 +1901,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1906,7 +1911,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1933,10 +1938,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111880942</v>
+        <v>111880949</v>
       </c>
       <c r="B13" t="n">
-        <v>89419</v>
+        <v>81248</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1949,21 +1954,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1204</v>
+        <v>1312</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1973,10 +1978,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>542084.1829313486</v>
+        <v>542049.2192421678</v>
       </c>
       <c r="R13" t="n">
-        <v>7207605.295480353</v>
+        <v>7207078.993006725</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2008,7 +2013,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>11:13</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2018,7 +2023,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>11:13</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2045,10 +2050,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111880918</v>
+        <v>111880951</v>
       </c>
       <c r="B14" t="n">
-        <v>56398</v>
+        <v>81248</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2061,39 +2066,34 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100109</v>
+        <v>1312</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P14" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>542094.1676287345</v>
+        <v>541997.4628031991</v>
       </c>
       <c r="R14" t="n">
-        <v>7207618.559281281</v>
+        <v>7206961.404833729</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2135,7 +2135,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2162,10 +2162,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111880945</v>
+        <v>111880923</v>
       </c>
       <c r="B15" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2178,34 +2178,39 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P15" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>541992.3350473243</v>
+        <v>542031.6272371748</v>
       </c>
       <c r="R15" t="n">
-        <v>7206964.296518312</v>
+        <v>7207033.864959669</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2237,7 +2242,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2247,7 +2252,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2274,10 +2279,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111880917</v>
+        <v>111880934</v>
       </c>
       <c r="B16" t="n">
-        <v>56398</v>
+        <v>89755</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2286,43 +2291,38 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100109</v>
+        <v>1506</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ostticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Skeletocutis odora</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Sacc.) Ginns</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P16" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>541911.8836180366</v>
+        <v>542047.800844026</v>
       </c>
       <c r="R16" t="n">
-        <v>7207560.960151838</v>
+        <v>7207810.931888579</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2354,7 +2354,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2364,7 +2364,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2508,10 +2508,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111880932</v>
+        <v>111880953</v>
       </c>
       <c r="B18" t="n">
-        <v>73701</v>
+        <v>81248</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2524,21 +2524,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1467</v>
+        <v>1312</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2548,10 +2548,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>542007.8174160335</v>
+        <v>542033.000742175</v>
       </c>
       <c r="R18" t="n">
-        <v>7207490.343687338</v>
+        <v>7207086.808900191</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2583,7 +2583,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>12:14</t>
+          <t>11:17</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2593,7 +2593,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>12:14</t>
+          <t>11:17</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2620,10 +2620,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111880953</v>
+        <v>111880930</v>
       </c>
       <c r="B19" t="n">
-        <v>81248</v>
+        <v>73701</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2636,21 +2636,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1312</v>
+        <v>1467</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2660,10 +2660,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>542033.000742175</v>
+        <v>541921.4757480586</v>
       </c>
       <c r="R19" t="n">
-        <v>7207086.808900191</v>
+        <v>7207451.451700119</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2695,7 +2695,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>11:17</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2705,7 +2705,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>11:17</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2732,10 +2732,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111880937</v>
+        <v>111880945</v>
       </c>
       <c r="B20" t="n">
-        <v>77597</v>
+        <v>77515</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2748,21 +2748,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>864</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2772,10 +2772,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>541877.3536555107</v>
+        <v>541992.3350473243</v>
       </c>
       <c r="R20" t="n">
-        <v>7207212.904887519</v>
+        <v>7206964.296518312</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2807,7 +2807,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>13:28</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2817,7 +2817,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>13:28</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2844,10 +2844,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111880944</v>
+        <v>111880926</v>
       </c>
       <c r="B21" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2860,34 +2860,39 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>542042.4498383483</v>
+        <v>541923.3969001662</v>
       </c>
       <c r="R21" t="n">
-        <v>7207047.989658362</v>
+        <v>7207435.391708902</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2919,7 +2924,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>11:06</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2929,7 +2934,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>11:06</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2956,10 +2961,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111880946</v>
+        <v>111880932</v>
       </c>
       <c r="B22" t="n">
-        <v>77515</v>
+        <v>73701</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2972,21 +2977,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>1467</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2996,10 +3001,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>542062.4165370018</v>
+        <v>542007.8174160335</v>
       </c>
       <c r="R22" t="n">
-        <v>7207676.105274805</v>
+        <v>7207490.343687338</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3031,7 +3036,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>12:33</t>
+          <t>12:14</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3041,7 +3046,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>12:33</t>
+          <t>12:14</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3068,10 +3073,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111880930</v>
+        <v>111880948</v>
       </c>
       <c r="B23" t="n">
-        <v>73701</v>
+        <v>81248</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3084,21 +3089,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1467</v>
+        <v>1312</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3108,10 +3113,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>541921.4757480586</v>
+        <v>542024.1084171082</v>
       </c>
       <c r="R23" t="n">
-        <v>7207451.451700119</v>
+        <v>7207236.560950483</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3143,7 +3148,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3153,7 +3158,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3180,10 +3185,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111880950</v>
+        <v>111880917</v>
       </c>
       <c r="B24" t="n">
-        <v>81248</v>
+        <v>56398</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3196,34 +3201,39 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1312</v>
+        <v>100109</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P24" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>542034.6775354908</v>
+        <v>541911.8836180366</v>
       </c>
       <c r="R24" t="n">
-        <v>7207027.980329536</v>
+        <v>7207560.960151838</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3255,7 +3265,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3265,7 +3275,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3292,10 +3302,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111880916</v>
+        <v>111880944</v>
       </c>
       <c r="B25" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3308,39 +3318,34 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P25" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>541836.032053621</v>
+        <v>542042.4498383483</v>
       </c>
       <c r="R25" t="n">
-        <v>7207318.166730116</v>
+        <v>7207047.989658362</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3372,7 +3377,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>13:22</t>
+          <t>11:06</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3382,7 +3387,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>13:22</t>
+          <t>11:06</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3409,10 +3414,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111880923</v>
+        <v>111880950</v>
       </c>
       <c r="B26" t="n">
-        <v>56398</v>
+        <v>81248</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3425,39 +3430,34 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>100109</v>
+        <v>1312</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P26" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>542031.6272371748</v>
+        <v>542034.6775354908</v>
       </c>
       <c r="R26" t="n">
-        <v>7207033.864959669</v>
+        <v>7207027.980329536</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3499,7 +3499,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AD26" t="b">

--- a/artfynd/A 34418-2023.xlsx
+++ b/artfynd/A 34418-2023.xlsx
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111880943</v>
+        <v>111880926</v>
       </c>
       <c r="B3" t="n">
-        <v>89419</v>
+        <v>56398</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,34 +809,39 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1204</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>542040.4023077842</v>
+        <v>541923.3969001662</v>
       </c>
       <c r="R3" t="n">
-        <v>7207042.880014561</v>
+        <v>7207435.391708902</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -868,7 +873,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -878,7 +883,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -905,10 +910,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111880916</v>
+        <v>111880931</v>
       </c>
       <c r="B4" t="n">
-        <v>56398</v>
+        <v>73701</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -921,39 +926,34 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>1467</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>541836.032053621</v>
+        <v>542058.1969159436</v>
       </c>
       <c r="R4" t="n">
-        <v>7207318.166730116</v>
+        <v>7207764.939470014</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -985,7 +985,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>13:22</t>
+          <t>12:39</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -995,7 +995,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>13:22</t>
+          <t>12:39</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1022,7 +1022,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111880931</v>
+        <v>111880932</v>
       </c>
       <c r="B5" t="n">
         <v>73701</v>
@@ -1062,10 +1062,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>542058.1969159436</v>
+        <v>542007.8174160335</v>
       </c>
       <c r="R5" t="n">
-        <v>7207764.939470014</v>
+        <v>7207490.343687338</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>12:39</t>
+          <t>12:14</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>12:39</t>
+          <t>12:14</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1134,10 +1134,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111880946</v>
+        <v>111880934</v>
       </c>
       <c r="B6" t="n">
-        <v>77515</v>
+        <v>89755</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1146,25 +1146,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>1506</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ostticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Skeletocutis odora</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Sacc.) Ginns</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1174,10 +1174,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>542062.4165370018</v>
+        <v>542047.800844026</v>
       </c>
       <c r="R6" t="n">
-        <v>7207676.105274805</v>
+        <v>7207810.931888579</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>12:33</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1219,7 +1219,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>12:33</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1246,7 +1246,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111880918</v>
+        <v>111880917</v>
       </c>
       <c r="B7" t="n">
         <v>56398</v>
@@ -1282,7 +1282,7 @@
       <c r="I7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1291,10 +1291,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>542094.1676287345</v>
+        <v>541911.8836180366</v>
       </c>
       <c r="R7" t="n">
-        <v>7207618.559281281</v>
+        <v>7207560.960151838</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1363,7 +1363,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111880915</v>
+        <v>111880919</v>
       </c>
       <c r="B8" t="n">
         <v>56398</v>
@@ -1408,10 +1408,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>541817.4245676536</v>
+        <v>542034.2760019428</v>
       </c>
       <c r="R8" t="n">
-        <v>7207284.883581423</v>
+        <v>7207537.706382441</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>13:25</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1453,7 +1453,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>13:25</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1480,10 +1480,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111880937</v>
+        <v>111880944</v>
       </c>
       <c r="B9" t="n">
-        <v>77597</v>
+        <v>77515</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1496,21 +1496,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>864</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1520,10 +1520,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>541877.3536555107</v>
+        <v>542042.4498383483</v>
       </c>
       <c r="R9" t="n">
-        <v>7207212.904887519</v>
+        <v>7207047.989658362</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>13:28</t>
+          <t>11:06</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1565,7 +1565,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>13:28</t>
+          <t>11:06</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1592,10 +1592,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111880924</v>
+        <v>111880937</v>
       </c>
       <c r="B10" t="n">
-        <v>56398</v>
+        <v>77597</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1608,39 +1608,34 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>864</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>541837.0161826212</v>
+        <v>541877.3536555107</v>
       </c>
       <c r="R10" t="n">
-        <v>7207308.4432537</v>
+        <v>7207212.904887519</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1672,7 +1667,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>13:23</t>
+          <t>13:28</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1682,7 +1677,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>13:23</t>
+          <t>13:28</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1709,10 +1704,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111880942</v>
+        <v>111880930</v>
       </c>
       <c r="B11" t="n">
-        <v>89419</v>
+        <v>73701</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1725,21 +1720,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1204</v>
+        <v>1467</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1749,10 +1744,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>542084.1829313486</v>
+        <v>541921.4757480586</v>
       </c>
       <c r="R11" t="n">
-        <v>7207605.295480353</v>
+        <v>7207451.451700119</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1784,7 +1779,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1794,7 +1789,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1821,10 +1816,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111880922</v>
+        <v>111880943</v>
       </c>
       <c r="B12" t="n">
-        <v>56398</v>
+        <v>89419</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1837,39 +1832,34 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>1204</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>542025.8874539799</v>
+        <v>542040.4023077842</v>
       </c>
       <c r="R12" t="n">
-        <v>7207260.71810686</v>
+        <v>7207042.880014561</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1901,7 +1891,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1911,7 +1901,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1938,7 +1928,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111880949</v>
+        <v>111880951</v>
       </c>
       <c r="B13" t="n">
         <v>81248</v>
@@ -1978,10 +1968,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>542049.2192421678</v>
+        <v>541997.4628031991</v>
       </c>
       <c r="R13" t="n">
-        <v>7207078.993006725</v>
+        <v>7206961.404833729</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2013,7 +2003,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>11:13</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2023,7 +2013,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>11:13</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2050,7 +2040,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111880951</v>
+        <v>111880950</v>
       </c>
       <c r="B14" t="n">
         <v>81248</v>
@@ -2090,10 +2080,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>541997.4628031991</v>
+        <v>542034.6775354908</v>
       </c>
       <c r="R14" t="n">
-        <v>7206961.404833729</v>
+        <v>7207027.980329536</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2125,7 +2115,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2135,7 +2125,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2162,10 +2152,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111880923</v>
+        <v>111880946</v>
       </c>
       <c r="B15" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2178,39 +2168,34 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P15" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>542031.6272371748</v>
+        <v>542062.4165370018</v>
       </c>
       <c r="R15" t="n">
-        <v>7207033.864959669</v>
+        <v>7207676.105274805</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2242,7 +2227,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>12:33</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2252,7 +2237,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>12:33</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2279,10 +2264,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111880934</v>
+        <v>111880922</v>
       </c>
       <c r="B16" t="n">
-        <v>89755</v>
+        <v>56398</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2291,38 +2276,43 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1506</v>
+        <v>100109</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ostticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Skeletocutis odora</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Sacc.) Ginns</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P16" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>542047.800844026</v>
+        <v>542025.8874539799</v>
       </c>
       <c r="R16" t="n">
-        <v>7207810.931888579</v>
+        <v>7207260.71810686</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2354,7 +2344,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2364,7 +2354,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2391,7 +2381,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111880919</v>
+        <v>111880924</v>
       </c>
       <c r="B17" t="n">
         <v>56398</v>
@@ -2436,10 +2426,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>542034.2760019428</v>
+        <v>541837.0161826212</v>
       </c>
       <c r="R17" t="n">
-        <v>7207537.706382441</v>
+        <v>7207308.4432537</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2471,7 +2461,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>12:20</t>
+          <t>13:23</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2481,7 +2471,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>12:20</t>
+          <t>13:23</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2508,10 +2498,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111880953</v>
+        <v>111880915</v>
       </c>
       <c r="B18" t="n">
-        <v>81248</v>
+        <v>56398</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2524,34 +2514,39 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1312</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>542033.000742175</v>
+        <v>541817.4245676536</v>
       </c>
       <c r="R18" t="n">
-        <v>7207086.808900191</v>
+        <v>7207284.883581423</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2583,7 +2578,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>11:17</t>
+          <t>13:25</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2593,7 +2588,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>11:17</t>
+          <t>13:25</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2620,10 +2615,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111880930</v>
+        <v>111880948</v>
       </c>
       <c r="B19" t="n">
-        <v>73701</v>
+        <v>81248</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2636,21 +2631,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1467</v>
+        <v>1312</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2660,10 +2655,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>541921.4757480586</v>
+        <v>542024.1084171082</v>
       </c>
       <c r="R19" t="n">
-        <v>7207451.451700119</v>
+        <v>7207236.560950483</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2695,7 +2690,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2705,7 +2700,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2844,7 +2839,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111880926</v>
+        <v>111880923</v>
       </c>
       <c r="B21" t="n">
         <v>56398</v>
@@ -2889,10 +2884,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>541923.3969001662</v>
+        <v>542031.6272371748</v>
       </c>
       <c r="R21" t="n">
-        <v>7207435.391708902</v>
+        <v>7207033.864959669</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2924,7 +2919,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2934,7 +2929,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2961,10 +2956,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111880932</v>
+        <v>111880953</v>
       </c>
       <c r="B22" t="n">
-        <v>73701</v>
+        <v>81248</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2977,21 +2972,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1467</v>
+        <v>1312</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3001,10 +2996,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>542007.8174160335</v>
+        <v>542033.000742175</v>
       </c>
       <c r="R22" t="n">
-        <v>7207490.343687338</v>
+        <v>7207086.808900191</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3036,7 +3031,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>12:14</t>
+          <t>11:17</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3046,7 +3041,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>12:14</t>
+          <t>11:17</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3073,10 +3068,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111880948</v>
+        <v>111880918</v>
       </c>
       <c r="B23" t="n">
-        <v>81248</v>
+        <v>56398</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3089,34 +3084,39 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1312</v>
+        <v>100109</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>542024.1084171082</v>
+        <v>542094.1676287345</v>
       </c>
       <c r="R23" t="n">
-        <v>7207236.560950483</v>
+        <v>7207618.559281281</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3148,7 +3148,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3158,7 +3158,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3185,10 +3185,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111880917</v>
+        <v>111880949</v>
       </c>
       <c r="B24" t="n">
-        <v>56398</v>
+        <v>81248</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3201,39 +3201,34 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100109</v>
+        <v>1312</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P24" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>541911.8836180366</v>
+        <v>542049.2192421678</v>
       </c>
       <c r="R24" t="n">
-        <v>7207560.960151838</v>
+        <v>7207078.993006725</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3265,7 +3260,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>11:13</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3275,7 +3270,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>11:13</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3302,10 +3297,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111880944</v>
+        <v>111880916</v>
       </c>
       <c r="B25" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3318,34 +3313,39 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>542042.4498383483</v>
+        <v>541836.032053621</v>
       </c>
       <c r="R25" t="n">
-        <v>7207047.989658362</v>
+        <v>7207318.166730116</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3377,7 +3377,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>11:06</t>
+          <t>13:22</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>11:06</t>
+          <t>13:22</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3414,10 +3414,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111880950</v>
+        <v>111880942</v>
       </c>
       <c r="B26" t="n">
-        <v>81248</v>
+        <v>89419</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3430,21 +3430,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1312</v>
+        <v>1204</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3454,10 +3454,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>542034.6775354908</v>
+        <v>542084.1829313486</v>
       </c>
       <c r="R26" t="n">
-        <v>7207027.980329536</v>
+        <v>7207605.295480353</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3499,7 +3499,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AD26" t="b">

--- a/artfynd/A 34418-2023.xlsx
+++ b/artfynd/A 34418-2023.xlsx
@@ -3185,10 +3185,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111880949</v>
+        <v>111880916</v>
       </c>
       <c r="B24" t="n">
-        <v>81248</v>
+        <v>56398</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3201,34 +3201,39 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1312</v>
+        <v>100109</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P24" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>542049.2192421678</v>
+        <v>541836.032053621</v>
       </c>
       <c r="R24" t="n">
-        <v>7207078.993006725</v>
+        <v>7207318.166730116</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3260,7 +3265,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>11:13</t>
+          <t>13:22</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3270,7 +3275,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>11:13</t>
+          <t>13:22</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3297,10 +3302,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111880916</v>
+        <v>111880949</v>
       </c>
       <c r="B25" t="n">
-        <v>56398</v>
+        <v>81248</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3313,39 +3318,34 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>100109</v>
+        <v>1312</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P25" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>541836.032053621</v>
+        <v>542049.2192421678</v>
       </c>
       <c r="R25" t="n">
-        <v>7207318.166730116</v>
+        <v>7207078.993006725</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3377,7 +3377,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>13:22</t>
+          <t>11:13</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>13:22</t>
+          <t>11:13</t>
         </is>
       </c>
       <c r="AD25" t="b">

--- a/artfynd/A 34418-2023.xlsx
+++ b/artfynd/A 34418-2023.xlsx
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111880926</v>
+        <v>111880946</v>
       </c>
       <c r="B3" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,39 +809,34 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>541923.3969001662</v>
+        <v>542062.4165370018</v>
       </c>
       <c r="R3" t="n">
-        <v>7207435.391708902</v>
+        <v>7207676.105274805</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -873,7 +868,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>12:33</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -883,7 +878,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>12:33</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -910,10 +905,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111880931</v>
+        <v>111880926</v>
       </c>
       <c r="B4" t="n">
-        <v>73701</v>
+        <v>56398</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -926,34 +921,39 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1467</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>542058.1969159436</v>
+        <v>541923.3969001662</v>
       </c>
       <c r="R4" t="n">
-        <v>7207764.939470014</v>
+        <v>7207435.391708902</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -985,7 +985,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>12:39</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -995,7 +995,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>12:39</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1134,10 +1134,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111880934</v>
+        <v>111880943</v>
       </c>
       <c r="B6" t="n">
-        <v>89755</v>
+        <v>89419</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1146,25 +1146,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1506</v>
+        <v>1204</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ostticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Skeletocutis odora</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Sacc.) Ginns</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1174,10 +1174,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>542047.800844026</v>
+        <v>542040.4023077842</v>
       </c>
       <c r="R6" t="n">
-        <v>7207810.931888579</v>
+        <v>7207042.880014561</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1219,7 +1219,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1246,7 +1246,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111880917</v>
+        <v>111880922</v>
       </c>
       <c r="B7" t="n">
         <v>56398</v>
@@ -1282,7 +1282,7 @@
       <c r="I7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1291,10 +1291,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>541911.8836180366</v>
+        <v>542025.8874539799</v>
       </c>
       <c r="R7" t="n">
-        <v>7207560.960151838</v>
+        <v>7207260.71810686</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1363,10 +1363,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111880919</v>
+        <v>111880937</v>
       </c>
       <c r="B8" t="n">
-        <v>56398</v>
+        <v>77597</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1379,39 +1379,34 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100109</v>
+        <v>864</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>542034.2760019428</v>
+        <v>541877.3536555107</v>
       </c>
       <c r="R8" t="n">
-        <v>7207537.706382441</v>
+        <v>7207212.904887519</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1443,7 +1438,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>12:20</t>
+          <t>13:28</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1453,7 +1448,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>12:20</t>
+          <t>13:28</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1480,10 +1475,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111880944</v>
+        <v>111880951</v>
       </c>
       <c r="B9" t="n">
-        <v>77515</v>
+        <v>81248</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1496,21 +1491,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1520,10 +1515,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>542042.4498383483</v>
+        <v>541997.4628031991</v>
       </c>
       <c r="R9" t="n">
-        <v>7207047.989658362</v>
+        <v>7206961.404833729</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1555,7 +1550,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>11:06</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1565,7 +1560,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>11:06</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1592,10 +1587,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111880937</v>
+        <v>111880942</v>
       </c>
       <c r="B10" t="n">
-        <v>77597</v>
+        <v>89419</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1608,21 +1603,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>864</v>
+        <v>1204</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1632,10 +1627,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>541877.3536555107</v>
+        <v>542084.1829313486</v>
       </c>
       <c r="R10" t="n">
-        <v>7207212.904887519</v>
+        <v>7207605.295480353</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1667,7 +1662,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>13:28</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1677,7 +1672,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>13:28</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1704,10 +1699,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111880930</v>
+        <v>111880953</v>
       </c>
       <c r="B11" t="n">
-        <v>73701</v>
+        <v>81248</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1720,21 +1715,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1467</v>
+        <v>1312</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1744,10 +1739,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>541921.4757480586</v>
+        <v>542033.000742175</v>
       </c>
       <c r="R11" t="n">
-        <v>7207451.451700119</v>
+        <v>7207086.808900191</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1779,7 +1774,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>11:17</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1789,7 +1784,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>11:17</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1816,10 +1811,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111880943</v>
+        <v>111880950</v>
       </c>
       <c r="B12" t="n">
-        <v>89419</v>
+        <v>81248</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1832,21 +1827,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1204</v>
+        <v>1312</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1856,10 +1851,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>542040.4023077842</v>
+        <v>542034.6775354908</v>
       </c>
       <c r="R12" t="n">
-        <v>7207042.880014561</v>
+        <v>7207027.980329536</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1891,7 +1886,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1901,7 +1896,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1928,10 +1923,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111880951</v>
+        <v>111880924</v>
       </c>
       <c r="B13" t="n">
-        <v>81248</v>
+        <v>56398</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1944,34 +1939,39 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1312</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>541997.4628031991</v>
+        <v>541837.0161826212</v>
       </c>
       <c r="R13" t="n">
-        <v>7206961.404833729</v>
+        <v>7207308.4432537</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2003,7 +2003,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>13:23</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>13:23</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2040,10 +2040,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111880950</v>
+        <v>111880944</v>
       </c>
       <c r="B14" t="n">
-        <v>81248</v>
+        <v>77515</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2056,21 +2056,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>542034.6775354908</v>
+        <v>542042.4498383483</v>
       </c>
       <c r="R14" t="n">
-        <v>7207027.980329536</v>
+        <v>7207047.989658362</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>11:06</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>11:06</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2152,10 +2152,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111880946</v>
+        <v>111880934</v>
       </c>
       <c r="B15" t="n">
-        <v>77515</v>
+        <v>89755</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2164,25 +2164,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>1506</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ostticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Skeletocutis odora</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Sacc.) Ginns</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2192,10 +2192,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>542062.4165370018</v>
+        <v>542047.800844026</v>
       </c>
       <c r="R15" t="n">
-        <v>7207676.105274805</v>
+        <v>7207810.931888579</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2227,7 +2227,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>12:33</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>12:33</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2264,7 +2264,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111880922</v>
+        <v>111880923</v>
       </c>
       <c r="B16" t="n">
         <v>56398</v>
@@ -2309,10 +2309,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>542025.8874539799</v>
+        <v>542031.6272371748</v>
       </c>
       <c r="R16" t="n">
-        <v>7207260.71810686</v>
+        <v>7207033.864959669</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2344,7 +2344,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2354,7 +2354,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2381,7 +2381,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111880924</v>
+        <v>111880915</v>
       </c>
       <c r="B17" t="n">
         <v>56398</v>
@@ -2426,10 +2426,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>541837.0161826212</v>
+        <v>541817.4245676536</v>
       </c>
       <c r="R17" t="n">
-        <v>7207308.4432537</v>
+        <v>7207284.883581423</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2461,7 +2461,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>13:23</t>
+          <t>13:25</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2471,7 +2471,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>13:23</t>
+          <t>13:25</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2498,10 +2498,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111880915</v>
+        <v>111880948</v>
       </c>
       <c r="B18" t="n">
-        <v>56398</v>
+        <v>81248</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2514,39 +2514,34 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100109</v>
+        <v>1312</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P18" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>541817.4245676536</v>
+        <v>542024.1084171082</v>
       </c>
       <c r="R18" t="n">
-        <v>7207284.883581423</v>
+        <v>7207236.560950483</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2578,7 +2573,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>13:25</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2588,7 +2583,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>13:25</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2615,7 +2610,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111880948</v>
+        <v>111880949</v>
       </c>
       <c r="B19" t="n">
         <v>81248</v>
@@ -2655,10 +2650,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>542024.1084171082</v>
+        <v>542049.2192421678</v>
       </c>
       <c r="R19" t="n">
-        <v>7207236.560950483</v>
+        <v>7207078.993006725</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2690,7 +2685,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>11:13</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2700,7 +2695,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>11:13</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2839,7 +2834,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111880923</v>
+        <v>111880916</v>
       </c>
       <c r="B21" t="n">
         <v>56398</v>
@@ -2884,10 +2879,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>542031.6272371748</v>
+        <v>541836.032053621</v>
       </c>
       <c r="R21" t="n">
-        <v>7207033.864959669</v>
+        <v>7207318.166730116</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2919,7 +2914,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>13:22</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2929,7 +2924,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>13:22</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2956,10 +2951,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111880953</v>
+        <v>111880930</v>
       </c>
       <c r="B22" t="n">
-        <v>81248</v>
+        <v>73701</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2972,21 +2967,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1312</v>
+        <v>1467</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2996,10 +2991,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>542033.000742175</v>
+        <v>541921.4757480586</v>
       </c>
       <c r="R22" t="n">
-        <v>7207086.808900191</v>
+        <v>7207451.451700119</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3031,7 +3026,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>11:17</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3041,7 +3036,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>11:17</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3068,7 +3063,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111880918</v>
+        <v>111880919</v>
       </c>
       <c r="B23" t="n">
         <v>56398</v>
@@ -3113,10 +3108,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>542094.1676287345</v>
+        <v>542034.2760019428</v>
       </c>
       <c r="R23" t="n">
-        <v>7207618.559281281</v>
+        <v>7207537.706382441</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3148,7 +3143,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3158,7 +3153,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3185,7 +3180,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111880916</v>
+        <v>111880918</v>
       </c>
       <c r="B24" t="n">
         <v>56398</v>
@@ -3230,10 +3225,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>541836.032053621</v>
+        <v>542094.1676287345</v>
       </c>
       <c r="R24" t="n">
-        <v>7207318.166730116</v>
+        <v>7207618.559281281</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3265,7 +3260,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>13:22</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3275,7 +3270,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>13:22</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3302,10 +3297,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111880949</v>
+        <v>111880917</v>
       </c>
       <c r="B25" t="n">
-        <v>81248</v>
+        <v>56398</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3318,34 +3313,39 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1312</v>
+        <v>100109</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>542049.2192421678</v>
+        <v>541911.8836180366</v>
       </c>
       <c r="R25" t="n">
-        <v>7207078.993006725</v>
+        <v>7207560.960151838</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3377,7 +3377,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>11:13</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>11:13</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3414,10 +3414,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111880942</v>
+        <v>111880931</v>
       </c>
       <c r="B26" t="n">
-        <v>89419</v>
+        <v>73701</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3430,21 +3430,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1204</v>
+        <v>1467</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3454,10 +3454,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>542084.1829313486</v>
+        <v>542058.1969159436</v>
       </c>
       <c r="R26" t="n">
-        <v>7207605.295480353</v>
+        <v>7207764.939470014</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>12:39</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3499,7 +3499,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>12:39</t>
         </is>
       </c>
       <c r="AD26" t="b">

--- a/artfynd/A 34418-2023.xlsx
+++ b/artfynd/A 34418-2023.xlsx
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111880946</v>
+        <v>111880949</v>
       </c>
       <c r="B3" t="n">
-        <v>77515</v>
+        <v>81248</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,21 +809,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -833,10 +833,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>542062.4165370018</v>
+        <v>542049.2192421678</v>
       </c>
       <c r="R3" t="n">
-        <v>7207676.105274805</v>
+        <v>7207078.993006725</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -868,7 +868,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>12:33</t>
+          <t>11:13</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -878,7 +878,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>12:33</t>
+          <t>11:13</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -905,10 +905,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111880926</v>
+        <v>111880934</v>
       </c>
       <c r="B4" t="n">
-        <v>56398</v>
+        <v>89755</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -917,43 +917,38 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>1506</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ostticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Skeletocutis odora</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Sacc.) Ginns</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>541923.3969001662</v>
+        <v>542047.800844026</v>
       </c>
       <c r="R4" t="n">
-        <v>7207435.391708902</v>
+        <v>7207810.931888579</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -985,7 +980,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -995,7 +990,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1022,10 +1017,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111880932</v>
+        <v>111880948</v>
       </c>
       <c r="B5" t="n">
-        <v>73701</v>
+        <v>81248</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1038,21 +1033,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1467</v>
+        <v>1312</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1062,10 +1057,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>542007.8174160335</v>
+        <v>542024.1084171082</v>
       </c>
       <c r="R5" t="n">
-        <v>7207490.343687338</v>
+        <v>7207236.560950483</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1097,7 +1092,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>12:14</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1107,7 +1102,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>12:14</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1134,10 +1129,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111880943</v>
+        <v>111880950</v>
       </c>
       <c r="B6" t="n">
-        <v>89419</v>
+        <v>81248</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1150,21 +1145,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1204</v>
+        <v>1312</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1174,10 +1169,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>542040.4023077842</v>
+        <v>542034.6775354908</v>
       </c>
       <c r="R6" t="n">
-        <v>7207042.880014561</v>
+        <v>7207027.980329536</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1209,7 +1204,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1219,7 +1214,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1246,7 +1241,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111880922</v>
+        <v>111880923</v>
       </c>
       <c r="B7" t="n">
         <v>56398</v>
@@ -1291,10 +1286,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>542025.8874539799</v>
+        <v>542031.6272371748</v>
       </c>
       <c r="R7" t="n">
-        <v>7207260.71810686</v>
+        <v>7207033.864959669</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1326,7 +1321,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1336,7 +1331,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1363,10 +1358,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111880937</v>
+        <v>111880942</v>
       </c>
       <c r="B8" t="n">
-        <v>77597</v>
+        <v>89419</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1379,21 +1374,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>864</v>
+        <v>1204</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1403,10 +1398,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>541877.3536555107</v>
+        <v>542084.1829313486</v>
       </c>
       <c r="R8" t="n">
-        <v>7207212.904887519</v>
+        <v>7207605.295480353</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1438,7 +1433,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>13:28</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1448,7 +1443,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>13:28</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1475,10 +1470,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111880951</v>
+        <v>111880915</v>
       </c>
       <c r="B9" t="n">
-        <v>81248</v>
+        <v>56398</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1491,34 +1486,39 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1312</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>541997.4628031991</v>
+        <v>541817.4245676536</v>
       </c>
       <c r="R9" t="n">
-        <v>7206961.404833729</v>
+        <v>7207284.883581423</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1550,7 +1550,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>13:25</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1560,7 +1560,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>13:25</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1587,10 +1587,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111880942</v>
+        <v>111880953</v>
       </c>
       <c r="B10" t="n">
-        <v>89419</v>
+        <v>81248</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1603,21 +1603,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1204</v>
+        <v>1312</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1627,10 +1627,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>542084.1829313486</v>
+        <v>542033.000742175</v>
       </c>
       <c r="R10" t="n">
-        <v>7207605.295480353</v>
+        <v>7207086.808900191</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1662,7 +1662,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>11:17</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>11:17</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1699,10 +1699,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111880953</v>
+        <v>111880930</v>
       </c>
       <c r="B11" t="n">
-        <v>81248</v>
+        <v>73701</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1715,21 +1715,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1312</v>
+        <v>1467</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1739,10 +1739,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>542033.000742175</v>
+        <v>541921.4757480586</v>
       </c>
       <c r="R11" t="n">
-        <v>7207086.808900191</v>
+        <v>7207451.451700119</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1774,7 +1774,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>11:17</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1784,7 +1784,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>11:17</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1811,10 +1811,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111880950</v>
+        <v>111880931</v>
       </c>
       <c r="B12" t="n">
-        <v>81248</v>
+        <v>73701</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1827,21 +1827,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1312</v>
+        <v>1467</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>542034.6775354908</v>
+        <v>542058.1969159436</v>
       </c>
       <c r="R12" t="n">
-        <v>7207027.980329536</v>
+        <v>7207764.939470014</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1886,7 +1886,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>12:39</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>12:39</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1923,10 +1923,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111880924</v>
+        <v>111880951</v>
       </c>
       <c r="B13" t="n">
-        <v>56398</v>
+        <v>81248</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1939,39 +1939,34 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>1312</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P13" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>541837.0161826212</v>
+        <v>541997.4628031991</v>
       </c>
       <c r="R13" t="n">
-        <v>7207308.4432537</v>
+        <v>7206961.404833729</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2003,7 +1998,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>13:23</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2013,7 +2008,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>13:23</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2040,10 +2035,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111880944</v>
+        <v>111880932</v>
       </c>
       <c r="B14" t="n">
-        <v>77515</v>
+        <v>73701</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2056,21 +2051,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>1467</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2080,10 +2075,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>542042.4498383483</v>
+        <v>542007.8174160335</v>
       </c>
       <c r="R14" t="n">
-        <v>7207047.989658362</v>
+        <v>7207490.343687338</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2115,7 +2110,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>11:06</t>
+          <t>12:14</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2125,7 +2120,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>11:06</t>
+          <t>12:14</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2152,10 +2147,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111880934</v>
+        <v>111880918</v>
       </c>
       <c r="B15" t="n">
-        <v>89755</v>
+        <v>56398</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2164,38 +2159,43 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1506</v>
+        <v>100109</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Ostticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Skeletocutis odora</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Sacc.) Ginns</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P15" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>542047.800844026</v>
+        <v>542094.1676287345</v>
       </c>
       <c r="R15" t="n">
-        <v>7207810.931888579</v>
+        <v>7207618.559281281</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2227,7 +2227,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2264,7 +2264,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111880923</v>
+        <v>111880919</v>
       </c>
       <c r="B16" t="n">
         <v>56398</v>
@@ -2309,10 +2309,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>542031.6272371748</v>
+        <v>542034.2760019428</v>
       </c>
       <c r="R16" t="n">
-        <v>7207033.864959669</v>
+        <v>7207537.706382441</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2344,7 +2344,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2354,7 +2354,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2381,7 +2381,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111880915</v>
+        <v>111880916</v>
       </c>
       <c r="B17" t="n">
         <v>56398</v>
@@ -2426,10 +2426,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>541817.4245676536</v>
+        <v>541836.032053621</v>
       </c>
       <c r="R17" t="n">
-        <v>7207284.883581423</v>
+        <v>7207318.166730116</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2461,7 +2461,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>13:25</t>
+          <t>13:22</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2471,7 +2471,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>13:25</t>
+          <t>13:22</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2498,10 +2498,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111880948</v>
+        <v>111880944</v>
       </c>
       <c r="B18" t="n">
-        <v>81248</v>
+        <v>77515</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2514,21 +2514,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2538,10 +2538,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>542024.1084171082</v>
+        <v>542042.4498383483</v>
       </c>
       <c r="R18" t="n">
-        <v>7207236.560950483</v>
+        <v>7207047.989658362</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2573,7 +2573,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>11:06</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2583,7 +2583,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>11:06</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2610,10 +2610,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111880949</v>
+        <v>111880917</v>
       </c>
       <c r="B19" t="n">
-        <v>81248</v>
+        <v>56398</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2626,34 +2626,39 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1312</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P19" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>542049.2192421678</v>
+        <v>541911.8836180366</v>
       </c>
       <c r="R19" t="n">
-        <v>7207078.993006725</v>
+        <v>7207560.960151838</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2685,7 +2690,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>11:13</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2695,7 +2700,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>11:13</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2834,7 +2839,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111880916</v>
+        <v>111880926</v>
       </c>
       <c r="B21" t="n">
         <v>56398</v>
@@ -2879,10 +2884,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>541836.032053621</v>
+        <v>541923.3969001662</v>
       </c>
       <c r="R21" t="n">
-        <v>7207318.166730116</v>
+        <v>7207435.391708902</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2914,7 +2919,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>13:22</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2924,7 +2929,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>13:22</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2951,10 +2956,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111880930</v>
+        <v>111880943</v>
       </c>
       <c r="B22" t="n">
-        <v>73701</v>
+        <v>89419</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2967,21 +2972,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1467</v>
+        <v>1204</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2991,10 +2996,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>541921.4757480586</v>
+        <v>542040.4023077842</v>
       </c>
       <c r="R22" t="n">
-        <v>7207451.451700119</v>
+        <v>7207042.880014561</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3026,7 +3031,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3036,7 +3041,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3063,7 +3068,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111880919</v>
+        <v>111880924</v>
       </c>
       <c r="B23" t="n">
         <v>56398</v>
@@ -3108,10 +3113,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>542034.2760019428</v>
+        <v>541837.0161826212</v>
       </c>
       <c r="R23" t="n">
-        <v>7207537.706382441</v>
+        <v>7207308.4432537</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3143,7 +3148,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>12:20</t>
+          <t>13:23</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3153,7 +3158,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>12:20</t>
+          <t>13:23</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3180,7 +3185,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111880918</v>
+        <v>111880922</v>
       </c>
       <c r="B24" t="n">
         <v>56398</v>
@@ -3225,10 +3230,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>542094.1676287345</v>
+        <v>542025.8874539799</v>
       </c>
       <c r="R24" t="n">
-        <v>7207618.559281281</v>
+        <v>7207260.71810686</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3260,7 +3265,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3270,7 +3275,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3297,10 +3302,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111880917</v>
+        <v>111880946</v>
       </c>
       <c r="B25" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3313,39 +3318,34 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P25" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>541911.8836180366</v>
+        <v>542062.4165370018</v>
       </c>
       <c r="R25" t="n">
-        <v>7207560.960151838</v>
+        <v>7207676.105274805</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3377,7 +3377,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>12:33</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>12:33</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3414,10 +3414,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111880931</v>
+        <v>111880937</v>
       </c>
       <c r="B26" t="n">
-        <v>73701</v>
+        <v>77597</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3430,21 +3430,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1467</v>
+        <v>864</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3454,10 +3454,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>542058.1969159436</v>
+        <v>541877.3536555107</v>
       </c>
       <c r="R26" t="n">
-        <v>7207764.939470014</v>
+        <v>7207212.904887519</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>12:39</t>
+          <t>13:28</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3499,7 +3499,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>12:39</t>
+          <t>13:28</t>
         </is>
       </c>
       <c r="AD26" t="b">

--- a/artfynd/A 34418-2023.xlsx
+++ b/artfynd/A 34418-2023.xlsx
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111880949</v>
+        <v>111880915</v>
       </c>
       <c r="B3" t="n">
-        <v>81248</v>
+        <v>56398</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,34 +809,39 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1312</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>542049.2192421678</v>
+        <v>541817.4245676536</v>
       </c>
       <c r="R3" t="n">
-        <v>7207078.993006725</v>
+        <v>7207284.883581423</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -868,7 +873,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>11:13</t>
+          <t>13:25</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -878,7 +883,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>11:13</t>
+          <t>13:25</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -905,10 +910,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111880934</v>
+        <v>111880926</v>
       </c>
       <c r="B4" t="n">
-        <v>89755</v>
+        <v>56398</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -917,38 +922,43 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1506</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ostticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Skeletocutis odora</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Sacc.) Ginns</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>542047.800844026</v>
+        <v>541923.3969001662</v>
       </c>
       <c r="R4" t="n">
-        <v>7207810.931888579</v>
+        <v>7207435.391708902</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -980,7 +990,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -990,7 +1000,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1017,10 +1027,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111880948</v>
+        <v>111880943</v>
       </c>
       <c r="B5" t="n">
-        <v>81248</v>
+        <v>89419</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1033,21 +1043,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1312</v>
+        <v>1204</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1057,10 +1067,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>542024.1084171082</v>
+        <v>542040.4023077842</v>
       </c>
       <c r="R5" t="n">
-        <v>7207236.560950483</v>
+        <v>7207042.880014561</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1092,7 +1102,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1102,7 +1112,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1129,10 +1139,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111880950</v>
+        <v>111880932</v>
       </c>
       <c r="B6" t="n">
-        <v>81248</v>
+        <v>73701</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1145,21 +1155,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1312</v>
+        <v>1467</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1169,10 +1179,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>542034.6775354908</v>
+        <v>542007.8174160335</v>
       </c>
       <c r="R6" t="n">
-        <v>7207027.980329536</v>
+        <v>7207490.343687338</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1204,7 +1214,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>12:14</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1214,7 +1224,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>12:14</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1241,7 +1251,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111880923</v>
+        <v>111880922</v>
       </c>
       <c r="B7" t="n">
         <v>56398</v>
@@ -1286,10 +1296,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>542031.6272371748</v>
+        <v>542025.8874539799</v>
       </c>
       <c r="R7" t="n">
-        <v>7207033.864959669</v>
+        <v>7207260.71810686</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1321,7 +1331,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1331,7 +1341,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1358,10 +1368,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111880942</v>
+        <v>111880919</v>
       </c>
       <c r="B8" t="n">
-        <v>89419</v>
+        <v>56398</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1374,34 +1384,39 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1204</v>
+        <v>100109</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>542084.1829313486</v>
+        <v>542034.2760019428</v>
       </c>
       <c r="R8" t="n">
-        <v>7207605.295480353</v>
+        <v>7207537.706382441</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1433,7 +1448,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1443,7 +1458,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1470,10 +1485,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111880915</v>
+        <v>111880948</v>
       </c>
       <c r="B9" t="n">
-        <v>56398</v>
+        <v>81248</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1486,39 +1501,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100109</v>
+        <v>1312</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>541817.4245676536</v>
+        <v>542024.1084171082</v>
       </c>
       <c r="R9" t="n">
-        <v>7207284.883581423</v>
+        <v>7207236.560950483</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1550,7 +1560,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>13:25</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1560,7 +1570,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>13:25</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1587,7 +1597,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111880953</v>
+        <v>111880951</v>
       </c>
       <c r="B10" t="n">
         <v>81248</v>
@@ -1627,10 +1637,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>542033.000742175</v>
+        <v>541997.4628031991</v>
       </c>
       <c r="R10" t="n">
-        <v>7207086.808900191</v>
+        <v>7206961.404833729</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1662,7 +1672,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>11:17</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1672,7 +1682,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>11:17</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1699,10 +1709,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111880930</v>
+        <v>111880934</v>
       </c>
       <c r="B11" t="n">
-        <v>73701</v>
+        <v>89755</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1711,25 +1721,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1467</v>
+        <v>1506</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Ostticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Skeletocutis odora</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Sacc.) Ginns</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1739,10 +1749,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>541921.4757480586</v>
+        <v>542047.800844026</v>
       </c>
       <c r="R11" t="n">
-        <v>7207451.451700119</v>
+        <v>7207810.931888579</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1774,7 +1784,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1784,7 +1794,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1811,10 +1821,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111880931</v>
+        <v>111880937</v>
       </c>
       <c r="B12" t="n">
-        <v>73701</v>
+        <v>77597</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1827,21 +1837,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1467</v>
+        <v>864</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1851,10 +1861,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>542058.1969159436</v>
+        <v>541877.3536555107</v>
       </c>
       <c r="R12" t="n">
-        <v>7207764.939470014</v>
+        <v>7207212.904887519</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1886,7 +1896,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>12:39</t>
+          <t>13:28</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1896,7 +1906,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>12:39</t>
+          <t>13:28</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1923,10 +1933,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111880951</v>
+        <v>111880918</v>
       </c>
       <c r="B13" t="n">
-        <v>81248</v>
+        <v>56398</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1939,34 +1949,39 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1312</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>541997.4628031991</v>
+        <v>542094.1676287345</v>
       </c>
       <c r="R13" t="n">
-        <v>7206961.404833729</v>
+        <v>7207618.559281281</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1998,7 +2013,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2008,7 +2023,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2035,10 +2050,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111880932</v>
+        <v>111880924</v>
       </c>
       <c r="B14" t="n">
-        <v>73701</v>
+        <v>56398</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2051,34 +2066,39 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1467</v>
+        <v>100109</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P14" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>542007.8174160335</v>
+        <v>541837.0161826212</v>
       </c>
       <c r="R14" t="n">
-        <v>7207490.343687338</v>
+        <v>7207308.4432537</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2110,7 +2130,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>12:14</t>
+          <t>13:23</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2120,7 +2140,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>12:14</t>
+          <t>13:23</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2147,10 +2167,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111880918</v>
+        <v>111880950</v>
       </c>
       <c r="B15" t="n">
-        <v>56398</v>
+        <v>81248</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2163,39 +2183,34 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100109</v>
+        <v>1312</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P15" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>542094.1676287345</v>
+        <v>542034.6775354908</v>
       </c>
       <c r="R15" t="n">
-        <v>7207618.559281281</v>
+        <v>7207027.980329536</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2227,7 +2242,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2237,7 +2252,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2264,10 +2279,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111880919</v>
+        <v>111880953</v>
       </c>
       <c r="B16" t="n">
-        <v>56398</v>
+        <v>81248</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2280,39 +2295,34 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100109</v>
+        <v>1312</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P16" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>542034.2760019428</v>
+        <v>542033.000742175</v>
       </c>
       <c r="R16" t="n">
-        <v>7207537.706382441</v>
+        <v>7207086.808900191</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2344,7 +2354,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>12:20</t>
+          <t>11:17</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2354,7 +2364,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>12:20</t>
+          <t>11:17</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2381,10 +2391,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111880916</v>
+        <v>111880931</v>
       </c>
       <c r="B17" t="n">
-        <v>56398</v>
+        <v>73701</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2397,39 +2407,34 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100109</v>
+        <v>1467</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P17" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>541836.032053621</v>
+        <v>542058.1969159436</v>
       </c>
       <c r="R17" t="n">
-        <v>7207318.166730116</v>
+        <v>7207764.939470014</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2461,7 +2466,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>13:22</t>
+          <t>12:39</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2471,7 +2476,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>13:22</t>
+          <t>12:39</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2498,10 +2503,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111880944</v>
+        <v>111880942</v>
       </c>
       <c r="B18" t="n">
-        <v>77515</v>
+        <v>89419</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2514,21 +2519,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>1204</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2538,10 +2543,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>542042.4498383483</v>
+        <v>542084.1829313486</v>
       </c>
       <c r="R18" t="n">
-        <v>7207047.989658362</v>
+        <v>7207605.295480353</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2573,7 +2578,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>11:06</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2583,7 +2588,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>11:06</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2610,10 +2615,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111880917</v>
+        <v>111880945</v>
       </c>
       <c r="B19" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2626,39 +2631,34 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P19" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>541911.8836180366</v>
+        <v>541992.3350473243</v>
       </c>
       <c r="R19" t="n">
-        <v>7207560.960151838</v>
+        <v>7206964.296518312</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2690,7 +2690,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2700,7 +2700,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2727,10 +2727,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111880945</v>
+        <v>111880923</v>
       </c>
       <c r="B20" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2743,34 +2743,39 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>541992.3350473243</v>
+        <v>542031.6272371748</v>
       </c>
       <c r="R20" t="n">
-        <v>7206964.296518312</v>
+        <v>7207033.864959669</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2802,7 +2807,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2812,7 +2817,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2839,10 +2844,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111880926</v>
+        <v>111880944</v>
       </c>
       <c r="B21" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2855,39 +2860,34 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P21" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>541923.3969001662</v>
+        <v>542042.4498383483</v>
       </c>
       <c r="R21" t="n">
-        <v>7207435.391708902</v>
+        <v>7207047.989658362</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2919,7 +2919,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>11:06</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2929,7 +2929,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>11:06</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2956,10 +2956,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111880943</v>
+        <v>111880930</v>
       </c>
       <c r="B22" t="n">
-        <v>89419</v>
+        <v>73701</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2972,21 +2972,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1204</v>
+        <v>1467</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2996,10 +2996,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>542040.4023077842</v>
+        <v>541921.4757480586</v>
       </c>
       <c r="R22" t="n">
-        <v>7207042.880014561</v>
+        <v>7207451.451700119</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3031,7 +3031,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3041,7 +3041,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3068,10 +3068,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111880924</v>
+        <v>111880946</v>
       </c>
       <c r="B23" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3084,39 +3084,34 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>541837.0161826212</v>
+        <v>542062.4165370018</v>
       </c>
       <c r="R23" t="n">
-        <v>7207308.4432537</v>
+        <v>7207676.105274805</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3148,7 +3143,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>13:23</t>
+          <t>12:33</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3158,7 +3153,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>13:23</t>
+          <t>12:33</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3185,7 +3180,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111880922</v>
+        <v>111880916</v>
       </c>
       <c r="B24" t="n">
         <v>56398</v>
@@ -3230,10 +3225,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>542025.8874539799</v>
+        <v>541836.032053621</v>
       </c>
       <c r="R24" t="n">
-        <v>7207260.71810686</v>
+        <v>7207318.166730116</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3265,7 +3260,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>13:22</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3275,7 +3270,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>13:22</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3302,10 +3297,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111880946</v>
+        <v>111880949</v>
       </c>
       <c r="B25" t="n">
-        <v>77515</v>
+        <v>81248</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3318,21 +3313,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3342,10 +3337,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>542062.4165370018</v>
+        <v>542049.2192421678</v>
       </c>
       <c r="R25" t="n">
-        <v>7207676.105274805</v>
+        <v>7207078.993006725</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3377,7 +3372,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>12:33</t>
+          <t>11:13</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3387,7 +3382,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>12:33</t>
+          <t>11:13</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3414,10 +3409,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111880937</v>
+        <v>111880917</v>
       </c>
       <c r="B26" t="n">
-        <v>77597</v>
+        <v>56398</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3430,34 +3425,39 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>864</v>
+        <v>100109</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P26" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>541877.3536555107</v>
+        <v>541911.8836180366</v>
       </c>
       <c r="R26" t="n">
-        <v>7207212.904887519</v>
+        <v>7207560.960151838</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>13:28</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3499,7 +3499,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>13:28</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AD26" t="b">

--- a/artfynd/A 34418-2023.xlsx
+++ b/artfynd/A 34418-2023.xlsx
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111880915</v>
+        <v>111880942</v>
       </c>
       <c r="B3" t="n">
-        <v>56398</v>
+        <v>89419</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,39 +809,34 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>1204</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>541817.4245676536</v>
+        <v>542084.1829313486</v>
       </c>
       <c r="R3" t="n">
-        <v>7207284.883581423</v>
+        <v>7207605.295480353</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -873,7 +868,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>13:25</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -883,7 +878,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>13:25</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -910,7 +905,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111880926</v>
+        <v>111880915</v>
       </c>
       <c r="B4" t="n">
         <v>56398</v>
@@ -955,10 +950,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>541923.3969001662</v>
+        <v>541817.4245676536</v>
       </c>
       <c r="R4" t="n">
-        <v>7207435.391708902</v>
+        <v>7207284.883581423</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -990,7 +985,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>13:25</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1000,7 +995,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>13:25</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1027,10 +1022,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111880943</v>
+        <v>111880930</v>
       </c>
       <c r="B5" t="n">
-        <v>89419</v>
+        <v>73701</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1043,21 +1038,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1204</v>
+        <v>1467</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1067,10 +1062,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>542040.4023077842</v>
+        <v>541921.4757480586</v>
       </c>
       <c r="R5" t="n">
-        <v>7207042.880014561</v>
+        <v>7207451.451700119</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1102,7 +1097,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1112,7 +1107,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1139,7 +1134,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111880932</v>
+        <v>111880931</v>
       </c>
       <c r="B6" t="n">
         <v>73701</v>
@@ -1179,10 +1174,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>542007.8174160335</v>
+        <v>542058.1969159436</v>
       </c>
       <c r="R6" t="n">
-        <v>7207490.343687338</v>
+        <v>7207764.939470014</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1214,7 +1209,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>12:14</t>
+          <t>12:39</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1224,7 +1219,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>12:14</t>
+          <t>12:39</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1251,10 +1246,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111880922</v>
+        <v>111880944</v>
       </c>
       <c r="B7" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1267,39 +1262,34 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>542025.8874539799</v>
+        <v>542042.4498383483</v>
       </c>
       <c r="R7" t="n">
-        <v>7207260.71810686</v>
+        <v>7207047.989658362</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1331,7 +1321,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>11:06</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1341,7 +1331,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>11:06</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1368,10 +1358,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111880919</v>
+        <v>111880932</v>
       </c>
       <c r="B8" t="n">
-        <v>56398</v>
+        <v>73701</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1384,39 +1374,34 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100109</v>
+        <v>1467</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>542034.2760019428</v>
+        <v>542007.8174160335</v>
       </c>
       <c r="R8" t="n">
-        <v>7207537.706382441</v>
+        <v>7207490.343687338</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1448,7 +1433,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>12:20</t>
+          <t>12:14</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1458,7 +1443,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>12:20</t>
+          <t>12:14</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1485,10 +1470,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111880948</v>
+        <v>111880918</v>
       </c>
       <c r="B9" t="n">
-        <v>81248</v>
+        <v>56398</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1501,34 +1486,39 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1312</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>542024.1084171082</v>
+        <v>542094.1676287345</v>
       </c>
       <c r="R9" t="n">
-        <v>7207236.560950483</v>
+        <v>7207618.559281281</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1560,7 +1550,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1570,7 +1560,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1597,10 +1587,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111880951</v>
+        <v>111880916</v>
       </c>
       <c r="B10" t="n">
-        <v>81248</v>
+        <v>56398</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1613,34 +1603,39 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1312</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>541997.4628031991</v>
+        <v>541836.032053621</v>
       </c>
       <c r="R10" t="n">
-        <v>7206961.404833729</v>
+        <v>7207318.166730116</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1672,7 +1667,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>13:22</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1682,7 +1677,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>13:22</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1709,10 +1704,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111880934</v>
+        <v>111880926</v>
       </c>
       <c r="B11" t="n">
-        <v>89755</v>
+        <v>56398</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1721,38 +1716,43 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1506</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Ostticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Skeletocutis odora</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Sacc.) Ginns</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>542047.800844026</v>
+        <v>541923.3969001662</v>
       </c>
       <c r="R11" t="n">
-        <v>7207810.931888579</v>
+        <v>7207435.391708902</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1784,7 +1784,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1794,7 +1794,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1821,10 +1821,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111880937</v>
+        <v>111880943</v>
       </c>
       <c r="B12" t="n">
-        <v>77597</v>
+        <v>89419</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1837,21 +1837,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>864</v>
+        <v>1204</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1861,10 +1861,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>541877.3536555107</v>
+        <v>542040.4023077842</v>
       </c>
       <c r="R12" t="n">
-        <v>7207212.904887519</v>
+        <v>7207042.880014561</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>13:28</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>13:28</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1933,10 +1933,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111880918</v>
+        <v>111880953</v>
       </c>
       <c r="B13" t="n">
-        <v>56398</v>
+        <v>81248</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1949,39 +1949,34 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>1312</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P13" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>542094.1676287345</v>
+        <v>542033.000742175</v>
       </c>
       <c r="R13" t="n">
-        <v>7207618.559281281</v>
+        <v>7207086.808900191</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2013,7 +2008,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>11:17</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2023,7 +2018,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>11:17</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2167,7 +2162,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111880950</v>
+        <v>111880948</v>
       </c>
       <c r="B15" t="n">
         <v>81248</v>
@@ -2207,10 +2202,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>542034.6775354908</v>
+        <v>542024.1084171082</v>
       </c>
       <c r="R15" t="n">
-        <v>7207027.980329536</v>
+        <v>7207236.560950483</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2242,7 +2237,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2252,7 +2247,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2279,10 +2274,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111880953</v>
+        <v>111880934</v>
       </c>
       <c r="B16" t="n">
-        <v>81248</v>
+        <v>89755</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2291,25 +2286,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1312</v>
+        <v>1506</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Ostticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Skeletocutis odora</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Sacc.) Ginns</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2319,10 +2314,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>542033.000742175</v>
+        <v>542047.800844026</v>
       </c>
       <c r="R16" t="n">
-        <v>7207086.808900191</v>
+        <v>7207810.931888579</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2354,7 +2349,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>11:17</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2364,7 +2359,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>11:17</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2391,10 +2386,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111880931</v>
+        <v>111880950</v>
       </c>
       <c r="B17" t="n">
-        <v>73701</v>
+        <v>81248</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2407,21 +2402,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1467</v>
+        <v>1312</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2431,10 +2426,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>542058.1969159436</v>
+        <v>542034.6775354908</v>
       </c>
       <c r="R17" t="n">
-        <v>7207764.939470014</v>
+        <v>7207027.980329536</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2466,7 +2461,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>12:39</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2476,7 +2471,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>12:39</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2503,10 +2498,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111880942</v>
+        <v>111880919</v>
       </c>
       <c r="B18" t="n">
-        <v>89419</v>
+        <v>56398</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2519,34 +2514,39 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1204</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>542084.1829313486</v>
+        <v>542034.2760019428</v>
       </c>
       <c r="R18" t="n">
-        <v>7207605.295480353</v>
+        <v>7207537.706382441</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2578,7 +2578,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2588,7 +2588,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2615,10 +2615,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111880945</v>
+        <v>111880922</v>
       </c>
       <c r="B19" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2631,34 +2631,39 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P19" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>541992.3350473243</v>
+        <v>542025.8874539799</v>
       </c>
       <c r="R19" t="n">
-        <v>7206964.296518312</v>
+        <v>7207260.71810686</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2690,7 +2695,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2700,7 +2705,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2727,10 +2732,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111880923</v>
+        <v>111880949</v>
       </c>
       <c r="B20" t="n">
-        <v>56398</v>
+        <v>81248</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2743,39 +2748,34 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100109</v>
+        <v>1312</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P20" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>542031.6272371748</v>
+        <v>542049.2192421678</v>
       </c>
       <c r="R20" t="n">
-        <v>7207033.864959669</v>
+        <v>7207078.993006725</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2807,7 +2807,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>11:13</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2817,7 +2817,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>11:13</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2844,10 +2844,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111880944</v>
+        <v>111880951</v>
       </c>
       <c r="B21" t="n">
-        <v>77515</v>
+        <v>81248</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2860,21 +2860,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2884,10 +2884,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>542042.4498383483</v>
+        <v>541997.4628031991</v>
       </c>
       <c r="R21" t="n">
-        <v>7207047.989658362</v>
+        <v>7206961.404833729</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2919,7 +2919,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>11:06</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2929,7 +2929,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>11:06</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2956,10 +2956,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111880930</v>
+        <v>111880946</v>
       </c>
       <c r="B22" t="n">
-        <v>73701</v>
+        <v>77515</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2972,21 +2972,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1467</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2996,10 +2996,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>541921.4757480586</v>
+        <v>542062.4165370018</v>
       </c>
       <c r="R22" t="n">
-        <v>7207451.451700119</v>
+        <v>7207676.105274805</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3031,7 +3031,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>12:33</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3041,7 +3041,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>12:33</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3068,10 +3068,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111880946</v>
+        <v>111880917</v>
       </c>
       <c r="B23" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3084,34 +3084,39 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>542062.4165370018</v>
+        <v>541911.8836180366</v>
       </c>
       <c r="R23" t="n">
-        <v>7207676.105274805</v>
+        <v>7207560.960151838</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3143,7 +3148,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>12:33</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3153,7 +3158,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>12:33</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3180,10 +3185,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111880916</v>
+        <v>111880945</v>
       </c>
       <c r="B24" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3196,39 +3201,34 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P24" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>541836.032053621</v>
+        <v>541992.3350473243</v>
       </c>
       <c r="R24" t="n">
-        <v>7207318.166730116</v>
+        <v>7206964.296518312</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3260,7 +3260,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>13:22</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3270,7 +3270,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>13:22</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3297,10 +3297,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111880949</v>
+        <v>111880923</v>
       </c>
       <c r="B25" t="n">
-        <v>81248</v>
+        <v>56398</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3313,34 +3313,39 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1312</v>
+        <v>100109</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>542049.2192421678</v>
+        <v>542031.6272371748</v>
       </c>
       <c r="R25" t="n">
-        <v>7207078.993006725</v>
+        <v>7207033.864959669</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3372,7 +3377,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>11:13</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3382,7 +3387,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>11:13</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3409,10 +3414,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111880917</v>
+        <v>111880937</v>
       </c>
       <c r="B26" t="n">
-        <v>56398</v>
+        <v>77597</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3425,39 +3430,34 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>100109</v>
+        <v>864</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P26" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>541911.8836180366</v>
+        <v>541877.3536555107</v>
       </c>
       <c r="R26" t="n">
-        <v>7207560.960151838</v>
+        <v>7207212.904887519</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>13:28</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3499,7 +3499,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>13:28</t>
         </is>
       </c>
       <c r="AD26" t="b">

--- a/artfynd/A 34418-2023.xlsx
+++ b/artfynd/A 34418-2023.xlsx
@@ -2732,10 +2732,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111880949</v>
+        <v>111880917</v>
       </c>
       <c r="B20" t="n">
-        <v>81248</v>
+        <v>56398</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2748,34 +2748,39 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1312</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>542049.2192421678</v>
+        <v>541911.8836180366</v>
       </c>
       <c r="R20" t="n">
-        <v>7207078.993006725</v>
+        <v>7207560.960151838</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2807,7 +2812,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>11:13</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2817,7 +2822,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>11:13</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2844,7 +2849,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111880951</v>
+        <v>111880949</v>
       </c>
       <c r="B21" t="n">
         <v>81248</v>
@@ -2884,10 +2889,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>541997.4628031991</v>
+        <v>542049.2192421678</v>
       </c>
       <c r="R21" t="n">
-        <v>7206961.404833729</v>
+        <v>7207078.993006725</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2919,7 +2924,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>11:13</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2929,7 +2934,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>11:13</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2956,10 +2961,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111880946</v>
+        <v>111880951</v>
       </c>
       <c r="B22" t="n">
-        <v>77515</v>
+        <v>81248</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2972,21 +2977,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2996,10 +3001,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>542062.4165370018</v>
+        <v>541997.4628031991</v>
       </c>
       <c r="R22" t="n">
-        <v>7207676.105274805</v>
+        <v>7206961.404833729</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3031,7 +3036,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>12:33</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3041,7 +3046,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>12:33</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3068,10 +3073,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111880917</v>
+        <v>111880946</v>
       </c>
       <c r="B23" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3084,39 +3089,34 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>541911.8836180366</v>
+        <v>542062.4165370018</v>
       </c>
       <c r="R23" t="n">
-        <v>7207560.960151838</v>
+        <v>7207676.105274805</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3148,7 +3148,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>12:33</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3158,7 +3158,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>12:33</t>
         </is>
       </c>
       <c r="AD23" t="b">

--- a/artfynd/A 34418-2023.xlsx
+++ b/artfynd/A 34418-2023.xlsx
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>541977.3490697744</v>
+        <v>541977</v>
       </c>
       <c r="R2" t="n">
-        <v>7207517.008049243</v>
+        <v>7207517</v>
       </c>
       <c r="S2" t="n">
         <v>50</v>
@@ -754,19 +754,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,10 +783,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111880942</v>
+        <v>111880917</v>
       </c>
       <c r="B3" t="n">
-        <v>89419</v>
+        <v>56398</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,34 +799,39 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1204</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>542084.1829313486</v>
+        <v>541912</v>
       </c>
       <c r="R3" t="n">
-        <v>7207605.295480353</v>
+        <v>7207561</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -868,7 +863,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -878,7 +873,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -905,7 +900,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111880915</v>
+        <v>111880924</v>
       </c>
       <c r="B4" t="n">
         <v>56398</v>
@@ -950,10 +945,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>541817.4245676536</v>
+        <v>541837</v>
       </c>
       <c r="R4" t="n">
-        <v>7207284.883581423</v>
+        <v>7207308</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -985,7 +980,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>13:25</t>
+          <t>13:23</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -995,7 +990,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>13:25</t>
+          <t>13:23</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1022,10 +1017,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111880930</v>
+        <v>111880949</v>
       </c>
       <c r="B5" t="n">
-        <v>73701</v>
+        <v>81248</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1038,21 +1033,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1467</v>
+        <v>1312</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1062,10 +1057,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>541921.4757480586</v>
+        <v>542049</v>
       </c>
       <c r="R5" t="n">
-        <v>7207451.451700119</v>
+        <v>7207079</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1097,7 +1092,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>11:13</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1107,7 +1102,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>11:13</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1134,10 +1129,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111880931</v>
+        <v>111880934</v>
       </c>
       <c r="B6" t="n">
-        <v>73701</v>
+        <v>89755</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1146,25 +1141,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1467</v>
+        <v>1506</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Ostticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Skeletocutis odora</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Sacc.) Ginns</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1174,10 +1169,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>542058.1969159436</v>
+        <v>542048</v>
       </c>
       <c r="R6" t="n">
-        <v>7207764.939470014</v>
+        <v>7207811</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1209,7 +1204,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>12:39</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1219,7 +1214,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>12:39</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1246,10 +1241,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111880944</v>
+        <v>111880916</v>
       </c>
       <c r="B7" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1262,34 +1257,39 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>542042.4498383483</v>
+        <v>541836</v>
       </c>
       <c r="R7" t="n">
-        <v>7207047.989658362</v>
+        <v>7207318</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>11:06</t>
+          <t>13:22</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>11:06</t>
+          <t>13:22</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1358,10 +1358,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111880932</v>
+        <v>111880923</v>
       </c>
       <c r="B8" t="n">
-        <v>73701</v>
+        <v>56398</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1374,34 +1374,39 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1467</v>
+        <v>100109</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>542007.8174160335</v>
+        <v>542032</v>
       </c>
       <c r="R8" t="n">
-        <v>7207490.343687338</v>
+        <v>7207034</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1433,7 +1438,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>12:14</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1443,7 +1448,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>12:14</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1470,10 +1475,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111880918</v>
+        <v>111880946</v>
       </c>
       <c r="B9" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1486,39 +1491,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>542094.1676287345</v>
+        <v>542062</v>
       </c>
       <c r="R9" t="n">
-        <v>7207618.559281281</v>
+        <v>7207676</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1550,7 +1550,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>12:33</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1560,7 +1560,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>12:33</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1587,10 +1587,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111880916</v>
+        <v>111880931</v>
       </c>
       <c r="B10" t="n">
-        <v>56398</v>
+        <v>73701</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1603,39 +1603,34 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>1467</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>541836.032053621</v>
+        <v>542058</v>
       </c>
       <c r="R10" t="n">
-        <v>7207318.166730116</v>
+        <v>7207765</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1667,7 +1662,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>13:22</t>
+          <t>12:39</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1677,7 +1672,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>13:22</t>
+          <t>12:39</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1704,10 +1699,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111880926</v>
+        <v>111880948</v>
       </c>
       <c r="B11" t="n">
-        <v>56398</v>
+        <v>81248</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1720,39 +1715,34 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>1312</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>541923.3969001662</v>
+        <v>542024</v>
       </c>
       <c r="R11" t="n">
-        <v>7207435.391708902</v>
+        <v>7207237</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1784,7 +1774,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1794,7 +1784,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1821,10 +1811,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111880943</v>
+        <v>111880944</v>
       </c>
       <c r="B12" t="n">
-        <v>89419</v>
+        <v>77515</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1837,21 +1827,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1204</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1861,10 +1851,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>542040.4023077842</v>
+        <v>542042</v>
       </c>
       <c r="R12" t="n">
-        <v>7207042.880014561</v>
+        <v>7207048</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1896,7 +1886,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>11:06</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1906,7 +1896,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>11:06</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1933,10 +1923,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111880953</v>
+        <v>111880919</v>
       </c>
       <c r="B13" t="n">
-        <v>81248</v>
+        <v>56398</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1949,34 +1939,39 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1312</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>542033.000742175</v>
+        <v>542034</v>
       </c>
       <c r="R13" t="n">
-        <v>7207086.808900191</v>
+        <v>7207538</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2008,7 +2003,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>11:17</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2018,7 +2013,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>11:17</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2045,10 +2040,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111880924</v>
+        <v>111880953</v>
       </c>
       <c r="B14" t="n">
-        <v>56398</v>
+        <v>81248</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2061,39 +2056,34 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100109</v>
+        <v>1312</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P14" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>541837.0161826212</v>
+        <v>542033</v>
       </c>
       <c r="R14" t="n">
-        <v>7207308.4432537</v>
+        <v>7207087</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2125,7 +2115,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>13:23</t>
+          <t>11:17</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2135,7 +2125,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>13:23</t>
+          <t>11:17</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2162,7 +2152,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111880948</v>
+        <v>111880950</v>
       </c>
       <c r="B15" t="n">
         <v>81248</v>
@@ -2202,10 +2192,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>542024.1084171082</v>
+        <v>542035</v>
       </c>
       <c r="R15" t="n">
-        <v>7207236.560950483</v>
+        <v>7207028</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2237,7 +2227,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2247,7 +2237,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2274,10 +2264,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111880934</v>
+        <v>111880945</v>
       </c>
       <c r="B16" t="n">
-        <v>89755</v>
+        <v>77515</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2286,25 +2276,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1506</v>
+        <v>6425</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ostticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Skeletocutis odora</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Sacc.) Ginns</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2314,10 +2304,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>542047.800844026</v>
+        <v>541992</v>
       </c>
       <c r="R16" t="n">
-        <v>7207810.931888579</v>
+        <v>7206964</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2349,7 +2339,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2359,7 +2349,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2386,10 +2376,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111880950</v>
+        <v>111880922</v>
       </c>
       <c r="B17" t="n">
-        <v>81248</v>
+        <v>56398</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2402,34 +2392,39 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1312</v>
+        <v>100109</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>542034.6775354908</v>
+        <v>542026</v>
       </c>
       <c r="R17" t="n">
-        <v>7207027.980329536</v>
+        <v>7207261</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2461,7 +2456,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2471,7 +2466,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2498,7 +2493,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111880919</v>
+        <v>111880915</v>
       </c>
       <c r="B18" t="n">
         <v>56398</v>
@@ -2543,10 +2538,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>542034.2760019428</v>
+        <v>541817</v>
       </c>
       <c r="R18" t="n">
-        <v>7207537.706382441</v>
+        <v>7207285</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2578,7 +2573,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>12:20</t>
+          <t>13:25</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2588,7 +2583,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>12:20</t>
+          <t>13:25</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2615,7 +2610,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111880922</v>
+        <v>111880918</v>
       </c>
       <c r="B19" t="n">
         <v>56398</v>
@@ -2660,10 +2655,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>542025.8874539799</v>
+        <v>542094</v>
       </c>
       <c r="R19" t="n">
-        <v>7207260.71810686</v>
+        <v>7207619</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2695,7 +2690,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2705,7 +2700,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2732,10 +2727,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111880917</v>
+        <v>111880932</v>
       </c>
       <c r="B20" t="n">
-        <v>56398</v>
+        <v>73701</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2748,39 +2743,34 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100109</v>
+        <v>1467</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P20" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>541911.8836180366</v>
+        <v>542008</v>
       </c>
       <c r="R20" t="n">
-        <v>7207560.960151838</v>
+        <v>7207490</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2812,7 +2802,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>12:14</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2822,7 +2812,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>12:14</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2849,10 +2839,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111880949</v>
+        <v>111880943</v>
       </c>
       <c r="B21" t="n">
-        <v>81248</v>
+        <v>89419</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2865,21 +2855,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1312</v>
+        <v>1204</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2889,10 +2879,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>542049.2192421678</v>
+        <v>542040</v>
       </c>
       <c r="R21" t="n">
-        <v>7207078.993006725</v>
+        <v>7207043</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2924,7 +2914,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>11:13</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2934,7 +2924,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>11:13</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2961,10 +2951,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111880951</v>
+        <v>111880930</v>
       </c>
       <c r="B22" t="n">
-        <v>81248</v>
+        <v>73701</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2977,21 +2967,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1312</v>
+        <v>1467</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3001,10 +2991,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>541997.4628031991</v>
+        <v>541921</v>
       </c>
       <c r="R22" t="n">
-        <v>7206961.404833729</v>
+        <v>7207451</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3036,7 +3026,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3046,7 +3036,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3073,10 +3063,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111880946</v>
+        <v>111880926</v>
       </c>
       <c r="B23" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3089,34 +3079,39 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>542062.4165370018</v>
+        <v>541923</v>
       </c>
       <c r="R23" t="n">
-        <v>7207676.105274805</v>
+        <v>7207435</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3148,7 +3143,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>12:33</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3158,7 +3153,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>12:33</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3185,10 +3180,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111880945</v>
+        <v>111880951</v>
       </c>
       <c r="B24" t="n">
-        <v>77515</v>
+        <v>81248</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3201,21 +3196,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3225,10 +3220,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>541992.3350473243</v>
+        <v>541997</v>
       </c>
       <c r="R24" t="n">
-        <v>7206964.296518312</v>
+        <v>7206961</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3260,7 +3255,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3270,7 +3265,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3297,10 +3292,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111880923</v>
+        <v>111880937</v>
       </c>
       <c r="B25" t="n">
-        <v>56398</v>
+        <v>77597</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3313,39 +3308,34 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>100109</v>
+        <v>864</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P25" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>542031.6272371748</v>
+        <v>541877</v>
       </c>
       <c r="R25" t="n">
-        <v>7207033.864959669</v>
+        <v>7207213</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3377,7 +3367,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>13:28</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3387,7 +3377,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>13:28</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3414,10 +3404,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111880937</v>
+        <v>111880942</v>
       </c>
       <c r="B26" t="n">
-        <v>77597</v>
+        <v>89419</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3430,21 +3420,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>864</v>
+        <v>1204</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3454,10 +3444,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>541877.3536555107</v>
+        <v>542084</v>
       </c>
       <c r="R26" t="n">
-        <v>7207212.904887519</v>
+        <v>7207605</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3489,7 +3479,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>13:28</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3499,7 +3489,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>13:28</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AD26" t="b">

--- a/artfynd/A 34418-2023.xlsx
+++ b/artfynd/A 34418-2023.xlsx
@@ -783,10 +783,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111880917</v>
+        <v>111880915</v>
       </c>
       <c r="B3" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -819,7 +819,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -828,10 +828,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>541912</v>
+        <v>541817</v>
       </c>
       <c r="R3" t="n">
-        <v>7207561</v>
+        <v>7207285</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -863,7 +863,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>13:25</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>13:25</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -900,10 +900,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111880924</v>
+        <v>111880917</v>
       </c>
       <c r="B4" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
       <c r="I4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -945,10 +945,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>541837</v>
+        <v>541912</v>
       </c>
       <c r="R4" t="n">
-        <v>7207308</v>
+        <v>7207561</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -980,7 +980,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>13:23</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -990,7 +990,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>13:23</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1017,10 +1017,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111880949</v>
+        <v>111880916</v>
       </c>
       <c r="B5" t="n">
-        <v>81248</v>
+        <v>56430</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1033,34 +1033,39 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1312</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>542049</v>
+        <v>541836</v>
       </c>
       <c r="R5" t="n">
-        <v>7207079</v>
+        <v>7207318</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1092,7 +1097,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>11:13</t>
+          <t>13:22</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1102,7 +1107,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>11:13</t>
+          <t>13:22</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1129,10 +1134,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111880934</v>
+        <v>111880945</v>
       </c>
       <c r="B6" t="n">
-        <v>89755</v>
+        <v>77636</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1141,25 +1146,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1506</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ostticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Skeletocutis odora</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Sacc.) Ginns</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1169,10 +1174,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>542048</v>
+        <v>541992</v>
       </c>
       <c r="R6" t="n">
-        <v>7207811</v>
+        <v>7206964</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1204,7 +1209,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1214,7 +1219,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1241,10 +1246,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111880916</v>
+        <v>111880931</v>
       </c>
       <c r="B7" t="n">
-        <v>56398</v>
+        <v>73825</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1257,39 +1262,34 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>1467</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>541836</v>
+        <v>542058</v>
       </c>
       <c r="R7" t="n">
-        <v>7207318</v>
+        <v>7207765</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>13:22</t>
+          <t>12:39</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>13:22</t>
+          <t>12:39</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1361,7 +1361,7 @@
         <v>111880923</v>
       </c>
       <c r="B8" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1475,10 +1475,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111880946</v>
+        <v>111880918</v>
       </c>
       <c r="B9" t="n">
-        <v>77515</v>
+        <v>56430</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1491,34 +1491,39 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>542062</v>
+        <v>542094</v>
       </c>
       <c r="R9" t="n">
-        <v>7207676</v>
+        <v>7207619</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1550,7 +1555,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>12:33</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1560,7 +1565,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>12:33</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1587,10 +1592,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111880931</v>
+        <v>111880934</v>
       </c>
       <c r="B10" t="n">
-        <v>73701</v>
+        <v>89889</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1599,25 +1604,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1467</v>
+        <v>1506</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Ostticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Skeletocutis odora</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Sacc.) Ginns</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1627,10 +1632,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>542058</v>
+        <v>542048</v>
       </c>
       <c r="R10" t="n">
-        <v>7207765</v>
+        <v>7207811</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1662,7 +1667,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>12:39</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1672,7 +1677,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>12:39</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1699,10 +1704,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111880948</v>
+        <v>111880953</v>
       </c>
       <c r="B11" t="n">
-        <v>81248</v>
+        <v>81371</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1739,10 +1744,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>542024</v>
+        <v>542033</v>
       </c>
       <c r="R11" t="n">
-        <v>7207237</v>
+        <v>7207087</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1774,7 +1779,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>11:17</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1784,7 +1789,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>11:17</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1811,10 +1816,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111880944</v>
+        <v>111880932</v>
       </c>
       <c r="B12" t="n">
-        <v>77515</v>
+        <v>73825</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1827,21 +1832,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>1467</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1851,10 +1856,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>542042</v>
+        <v>542008</v>
       </c>
       <c r="R12" t="n">
-        <v>7207048</v>
+        <v>7207490</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1886,7 +1891,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>11:06</t>
+          <t>12:14</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1896,7 +1901,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>11:06</t>
+          <t>12:14</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1923,10 +1928,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111880919</v>
+        <v>111880942</v>
       </c>
       <c r="B13" t="n">
-        <v>56398</v>
+        <v>89553</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1939,39 +1944,34 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>1204</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P13" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>542034</v>
+        <v>542084</v>
       </c>
       <c r="R13" t="n">
-        <v>7207538</v>
+        <v>7207605</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2003,7 +2003,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>12:20</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>12:20</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2040,10 +2040,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111880953</v>
+        <v>111880922</v>
       </c>
       <c r="B14" t="n">
-        <v>81248</v>
+        <v>56430</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2056,34 +2056,39 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1312</v>
+        <v>100109</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P14" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>542033</v>
+        <v>542026</v>
       </c>
       <c r="R14" t="n">
-        <v>7207087</v>
+        <v>7207261</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2115,7 +2120,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>11:17</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2125,7 +2130,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>11:17</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2152,10 +2157,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111880950</v>
+        <v>111880919</v>
       </c>
       <c r="B15" t="n">
-        <v>81248</v>
+        <v>56430</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2168,34 +2173,39 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1312</v>
+        <v>100109</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P15" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>542035</v>
+        <v>542034</v>
       </c>
       <c r="R15" t="n">
-        <v>7207028</v>
+        <v>7207538</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2227,7 +2237,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2237,7 +2247,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2264,10 +2274,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111880945</v>
+        <v>111880926</v>
       </c>
       <c r="B16" t="n">
-        <v>77515</v>
+        <v>56430</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2280,34 +2290,39 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P16" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>541992</v>
+        <v>541923</v>
       </c>
       <c r="R16" t="n">
-        <v>7206964</v>
+        <v>7207435</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2339,7 +2354,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2349,7 +2364,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2376,10 +2391,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111880922</v>
+        <v>111880930</v>
       </c>
       <c r="B17" t="n">
-        <v>56398</v>
+        <v>73825</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2392,39 +2407,34 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100109</v>
+        <v>1467</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P17" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>542026</v>
+        <v>541921</v>
       </c>
       <c r="R17" t="n">
-        <v>7207261</v>
+        <v>7207451</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2456,7 +2466,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2466,7 +2476,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2493,10 +2503,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111880915</v>
+        <v>111880937</v>
       </c>
       <c r="B18" t="n">
-        <v>56398</v>
+        <v>77717</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2509,39 +2519,34 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100109</v>
+        <v>864</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P18" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>541817</v>
+        <v>541877</v>
       </c>
       <c r="R18" t="n">
-        <v>7207285</v>
+        <v>7207213</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2573,7 +2578,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>13:25</t>
+          <t>13:28</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2583,7 +2588,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>13:25</t>
+          <t>13:28</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2610,10 +2615,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111880918</v>
+        <v>111880946</v>
       </c>
       <c r="B19" t="n">
-        <v>56398</v>
+        <v>77636</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2626,39 +2631,34 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P19" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>542094</v>
+        <v>542062</v>
       </c>
       <c r="R19" t="n">
-        <v>7207619</v>
+        <v>7207676</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2690,7 +2690,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>12:33</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2700,7 +2700,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>12:33</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2727,10 +2727,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111880932</v>
+        <v>111880951</v>
       </c>
       <c r="B20" t="n">
-        <v>73701</v>
+        <v>81371</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2743,21 +2743,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1467</v>
+        <v>1312</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2767,10 +2767,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>542008</v>
+        <v>541997</v>
       </c>
       <c r="R20" t="n">
-        <v>7207490</v>
+        <v>7206961</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2802,7 +2802,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>12:14</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2812,7 +2812,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>12:14</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2839,10 +2839,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111880943</v>
+        <v>111880949</v>
       </c>
       <c r="B21" t="n">
-        <v>89419</v>
+        <v>81371</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2855,21 +2855,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1204</v>
+        <v>1312</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2879,10 +2879,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>542040</v>
+        <v>542049</v>
       </c>
       <c r="R21" t="n">
-        <v>7207043</v>
+        <v>7207079</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2914,7 +2914,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>11:13</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2924,7 +2924,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>11:13</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2951,10 +2951,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111880930</v>
+        <v>111880944</v>
       </c>
       <c r="B22" t="n">
-        <v>73701</v>
+        <v>77636</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2967,21 +2967,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1467</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2991,10 +2991,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>541921</v>
+        <v>542042</v>
       </c>
       <c r="R22" t="n">
-        <v>7207451</v>
+        <v>7207048</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3026,7 +3026,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>11:06</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3036,7 +3036,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>11:06</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3063,10 +3063,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111880926</v>
+        <v>111880950</v>
       </c>
       <c r="B23" t="n">
-        <v>56398</v>
+        <v>81371</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3079,39 +3079,34 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100109</v>
+        <v>1312</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>541923</v>
+        <v>542035</v>
       </c>
       <c r="R23" t="n">
-        <v>7207435</v>
+        <v>7207028</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3143,7 +3138,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3153,7 +3148,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3180,10 +3175,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111880951</v>
+        <v>111880943</v>
       </c>
       <c r="B24" t="n">
-        <v>81248</v>
+        <v>89553</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3196,21 +3191,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1312</v>
+        <v>1204</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3220,10 +3215,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>541997</v>
+        <v>542040</v>
       </c>
       <c r="R24" t="n">
-        <v>7206961</v>
+        <v>7207043</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3255,7 +3250,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3265,7 +3260,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3292,10 +3287,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111880937</v>
+        <v>111880924</v>
       </c>
       <c r="B25" t="n">
-        <v>77597</v>
+        <v>56430</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3308,34 +3303,39 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>864</v>
+        <v>100109</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr">
         <is>
           <t>Bladberget, Ås lm</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>541877</v>
+        <v>541837</v>
       </c>
       <c r="R25" t="n">
-        <v>7207213</v>
+        <v>7207308</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3367,7 +3367,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>13:28</t>
+          <t>13:23</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3377,7 +3377,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>13:28</t>
+          <t>13:23</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3404,10 +3404,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111880942</v>
+        <v>111880948</v>
       </c>
       <c r="B26" t="n">
-        <v>89419</v>
+        <v>81371</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3420,21 +3420,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1204</v>
+        <v>1312</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3444,10 +3444,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>542084</v>
+        <v>542024</v>
       </c>
       <c r="R26" t="n">
-        <v>7207605</v>
+        <v>7207237</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3479,7 +3479,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3489,7 +3489,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AD26" t="b">

--- a/artfynd/A 34418-2023.xlsx
+++ b/artfynd/A 34418-2023.xlsx
@@ -2615,10 +2615,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111880946</v>
+        <v>111880951</v>
       </c>
       <c r="B19" t="n">
-        <v>77636</v>
+        <v>81371</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2631,21 +2631,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2655,10 +2655,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>542062</v>
+        <v>541997</v>
       </c>
       <c r="R19" t="n">
-        <v>7207676</v>
+        <v>7206961</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2690,7 +2690,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>12:33</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2700,7 +2700,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>12:33</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2727,7 +2727,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111880951</v>
+        <v>111880949</v>
       </c>
       <c r="B20" t="n">
         <v>81371</v>
@@ -2767,10 +2767,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>541997</v>
+        <v>542049</v>
       </c>
       <c r="R20" t="n">
-        <v>7206961</v>
+        <v>7207079</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2802,7 +2802,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>11:13</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2812,7 +2812,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>11:13</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2839,10 +2839,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111880949</v>
+        <v>111880946</v>
       </c>
       <c r="B21" t="n">
-        <v>81371</v>
+        <v>77636</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2855,21 +2855,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2879,10 +2879,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>542049</v>
+        <v>542062</v>
       </c>
       <c r="R21" t="n">
-        <v>7207079</v>
+        <v>7207676</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2914,7 +2914,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>11:13</t>
+          <t>12:33</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2924,7 +2924,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>11:13</t>
+          <t>12:33</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3063,10 +3063,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111880950</v>
+        <v>111880943</v>
       </c>
       <c r="B23" t="n">
-        <v>81371</v>
+        <v>89553</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3079,21 +3079,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1312</v>
+        <v>1204</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3103,10 +3103,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>542035</v>
+        <v>542040</v>
       </c>
       <c r="R23" t="n">
-        <v>7207028</v>
+        <v>7207043</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3138,7 +3138,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3148,7 +3148,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3175,10 +3175,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111880943</v>
+        <v>111880950</v>
       </c>
       <c r="B24" t="n">
-        <v>89553</v>
+        <v>81371</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3191,21 +3191,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1204</v>
+        <v>1312</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3215,10 +3215,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>542040</v>
+        <v>542035</v>
       </c>
       <c r="R24" t="n">
-        <v>7207043</v>
+        <v>7207028</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3250,7 +3250,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3260,7 +3260,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AD24" t="b">
